--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
-        <v>43412.48446164004</v>
+        <v>43420.40969527172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>43412.4844616632</v>
+        <v>43420.40969529486</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>43412.48446167477</v>
+        <v>43420.40969530644</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
-        <v>43412.48446167477</v>
+        <v>43420.40969531801</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
-        <v>43412.48446168634</v>
+        <v>43420.40969534116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>43412.48446169792</v>
+        <v>43420.40969535273</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2">
-        <v>43412.48446170949</v>
+        <v>43420.4096953643</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>43412.48446172106</v>
+        <v>43420.40969537588</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2">
-        <v>43412.48446173264</v>
+        <v>43420.40969538745</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>43412.48446174421</v>
+        <v>43420.40969539903</v>
       </c>
     </row>
   </sheetData>
